--- a/Fall 2021/Classifiers October 2021/Classifiers using updated samples/2 Year Experiments/With Pre-training/Labels.xlsx
+++ b/Fall 2021/Classifiers October 2021/Classifiers using updated samples/2 Year Experiments/With Pre-training/Labels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CONTE 1y Labels" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="TWIN 1y Labels" sheetId="4" r:id="rId3"/>
     <sheet name="TWIN 2y Labels" sheetId="5" r:id="rId4"/>
     <sheet name="Interpolated CTSA1y Labels" sheetId="2" r:id="rId5"/>
+    <sheet name="Interpolated CTSA2y Labels" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="669">
   <si>
     <t>C0011-2-1</t>
   </si>
@@ -2075,7 +2076,368 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8196,7 +8558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -33155,7 +33517,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33548,4 +33910,534 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>167</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>195</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fall 2021/Classifiers October 2021/Classifiers using updated samples/2 Year Experiments/With Pre-training/Labels.xlsx
+++ b/Fall 2021/Classifiers October 2021/Classifiers using updated samples/2 Year Experiments/With Pre-training/Labels.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CONTE 1y Labels" sheetId="1" r:id="rId1"/>
@@ -12,10 +12,11 @@
     <sheet name="TWIN 1y Labels" sheetId="4" r:id="rId3"/>
     <sheet name="TWIN 2y Labels" sheetId="5" r:id="rId4"/>
     <sheet name="Interpolated CTSA1y Labels" sheetId="2" r:id="rId5"/>
-    <sheet name="Interpolated CTSA2y Labels" sheetId="6" r:id="rId6"/>
+    <sheet name="Interpolated CTSA 2y Labels" sheetId="6" r:id="rId6"/>
+    <sheet name="Temp CTSA1y Labels" sheetId="7" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="669">
   <si>
     <t>C0011-2-1</t>
   </si>
@@ -2076,368 +2077,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -8558,7 +8198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -33517,7 +33157,7 @@
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33916,8 +33556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -34330,114 +33970,252 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="duplicateValues" dxfId="35" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="34" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="33" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="32" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A6">
-    <cfRule type="duplicateValues" dxfId="31" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
-    <cfRule type="duplicateValues" dxfId="30" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
-    <cfRule type="duplicateValues" dxfId="29" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="28" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="27" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
-    <cfRule type="duplicateValues" dxfId="26" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="25" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="23" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="21" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="17" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>262</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>265</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>271</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>276</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>283</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>